--- a/biology/Médecine/Ménisque_de_l'articulation_du_genou/Ménisque_de_l'articulation_du_genou.xlsx
+++ b/biology/Médecine/Ménisque_de_l'articulation_du_genou/Ménisque_de_l'articulation_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_de_l%27articulation_du_genou</t>
+          <t>Ménisque_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ménisques de l'articulation du genou (ou fibrocartilages semi-lunaires du genou ou ménisques interarticulaires du genou) sont deux disques articulaires de l'articulation fémoro-tibiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_de_l%27articulation_du_genou</t>
+          <t>Ménisque_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ménisque de l'articulation du genou sont deux structures fibrocartilagineuses qui s'intercalent entre les condyles du fémur et la surface articulaire supérieure du tibia : le ménisque latéral et le ménisque médial. Ensemble ils forment une ceinture méniscale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_de_l%27articulation_du_genou</t>
+          <t>Ménisque_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ménisques permettent la congruence des surfaces articulaires., absorbent les chocs, stabilisent l'articulation et transmettent les forces musculaires.
 Ils jouent également un rôle dans la proprioception.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_de_l%27articulation_du_genou</t>
+          <t>Ménisque_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traumatismes au genou ou la pratique sportive peuvent blesser les ménisques, le ménisque médial étant le plus fragile. 
 Les ménisques étant quasiment avasculaires, ils n'ont pas de potentiel de cicatrisation en cas de lésion. 
